--- a/assets/disciplinas/LOB1239.xlsx
+++ b/assets/disciplinas/LOB1239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao aluno os critérios básicos para elaboração das estações de tratamento de água utilizando diferentes tecnologias de tratamento de água para consumo humano e dos resíduos gerados. Os estudantess irão elaborar projetos utilizando as diversas tecnologias de tratamento.</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>7455355 - Robson da Silva Rocha</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Concepção de Sistemas de Tratamento de Água em Função da Qualidade da Água Bruta; Projeto de ETAs de Ciclo Completo com Emprego da Decantação ou da Flotação por ar Dissolvido por Clarificação; Projeto de ETAs de Filtração Direta Descendente; Projeto de ETAs de Filtração Direta Ascendente; Projeto de ETAs de Dupla Filtração; Projeto de ETAs por Floto-Filtração; Projeto de ETAs de filtração em Múltiplas Etapas - FiME; Métodos Alternativos de Desinfecção e Adsorção em Carvão Ativado; Tratamento dos Resíduos Gerados nas ETAs e Reuso da Água Recuperada.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - Concepção de Sistemas de Tratamento de Água em Função da Qualidade da Água Bruta - Tecnologias de Tratamento de Água e dos Resíduos Gerados nos ETAs; 2 - Projeto de ETAs de Ciclo Completo com Emprego da Decantação ou da Flotação por ar Dissolvido para Clarificação; Características de água bruta; características de coagulação e coagulantes; 3 - Projeto de ETAs de Filtração Direta Descendente; características de água bruta; características da coagulação e da floculação; efeito da floculação; filtros com taxa constante e taxa declinante; mecanismo da coagulação e principais coagulantes; 4 - Projeto de ETAs de Filtração Direta Ascendente; características de água bruta; mecanismo da coagulação e principais coagulantes; 5 - Projeto de ETAs de Dupla Filtração; Características de água bruta; mecanismo da coagulação e principais coagulantes; instalação com baterias independentes de filtros ascendentes e descendentes; instalação com filtros ascendentes/descendentes;; 6 - Projeto de ETAs por Floto-Filtração; características de água bruta; características da coagulação e da floculação; características dos filtros; 7 - Projeto de ETAs de Filtração em Múltiplas Etapas - FiME; características de água bruta; instalações de pré-filtração dinâmica; pré-filtração em pedregulho com escoamento ascendente, descendente ou horizontal e filtração lenta em areia; considerações sobre a operação e manutenção; 8 - Métodos Alternativos de Desinfecção e Adsorção em Carvão Ativado; unidades de pré e de pós-desinfecção; características da água e formação sub-produtos; isotermas de adsorção; parâmetros de projeto de adosrção e da câmara de contato; 9 - Tratamento dos resíduos Gerados na ETAs e Reuso da Água Recuperada; tecnologia de tratamento de água e características do sistema de tratamento dos resíduos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,10 +100,13 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, estudos de projetos sobre as diferentes tecnologias de tratamento; visitas técnicas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação composta por 3 (três) provas, sendo uma substitutiva, e por exercícios sobre as unidades de uma estação de tratamento de água.
@@ -119,18 +116,10 @@
 * valor mínimo da média das notas dos trabalhos e projetos (MT) = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com nota igual ou superior a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>DI BERNARDO, L. Métodos e Técnicas de Tratamento de Água. ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL &amp; LUIZ DI BERNARDO 2 V., Rio de Janeiro, 1993 (2005)
-DI BERNARDO, L. Algas e suas Influências na Qualidade da Água e nas Tecnologias de Tratamento ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL &amp; LUIZ DI BERNARDO, Rio de Janeiro, 1995.
-PROGRAMA DE PESQUISA EM SANEAMENTO BÁSICO Tratamento de Água de Abastecimento por Filtração em Múltiplas Etapas ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 1999 (PROGRAMA DE PESQUISA EM SANEAMENTO BÁSICO. Noções Gerais de Tratamento e Disposição Final de Lodos de Estações de Tratamento de Água ASOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 2000.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,93 +600,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1239.xlsx
+++ b/assets/disciplinas/LOB1239.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno os critérios básicos para elaboração das estações de tratamento de água utilizando diferentes tecnologias de tratamento de água para consumo humano e dos resíduos gerados. Os estudantess irão elaborar projetos utilizando as diversas tecnologias de tratamento.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Concepção de Sistemas de Tratamento de Água em Função da Qualidade da Água Bruta; Projeto de ETAs de Ciclo Completo com Emprego da Decantação ou da Flotação por ar Dissolvido por Clarificação; Projeto de ETAs de Filtração Direta Descendente; Projeto de ETAs de Filtração Direta Ascendente; Projeto de ETAs de Dupla Filtração; Projeto de ETAs por Floto-Filtração; Projeto de ETAs de filtração em Múltiplas Etapas - FiME; Métodos Alternativos de Desinfecção e Adsorção em Carvão Ativado; Tratamento dos Resíduos Gerados nas ETAs e Reuso da Água Recuperada.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - Concepção de Sistemas de Tratamento de Água em Função da Qualidade da Água Bruta - Tecnologias de Tratamento de Água e dos Resíduos Gerados nos ETAs; 2 - Projeto de ETAs de Ciclo Completo com Emprego da Decantação ou da Flotação por ar Dissolvido para Clarificação; Características de água bruta; características de coagulação e coagulantes; 3 - Projeto de ETAs de Filtração Direta Descendente; características de água bruta; características da coagulação e da floculação; efeito da floculação; filtros com taxa constante e taxa declinante; mecanismo da coagulação e principais coagulantes; 4 - Projeto de ETAs de Filtração Direta Ascendente; características de água bruta; mecanismo da coagulação e principais coagulantes; 5 - Projeto de ETAs de Dupla Filtração; Características de água bruta; mecanismo da coagulação e principais coagulantes; instalação com baterias independentes de filtros ascendentes e descendentes; instalação com filtros ascendentes/descendentes;; 6 - Projeto de ETAs por Floto-Filtração; características de água bruta; características da coagulação e da floculação; características dos filtros; 7 - Projeto de ETAs de Filtração em Múltiplas Etapas - FiME; características de água bruta; instalações de pré-filtração dinâmica; pré-filtração em pedregulho com escoamento ascendente, descendente ou horizontal e filtração lenta em areia; considerações sobre a operação e manutenção; 8 - Métodos Alternativos de Desinfecção e Adsorção em Carvão Ativado; unidades de pré e de pós-desinfecção; características da água e formação sub-produtos; isotermas de adsorção; parâmetros de projeto de adosrção e da câmara de contato; 9 - Tratamento dos resíduos Gerados na ETAs e Reuso da Água Recuperada; tecnologia de tratamento de água e características do sistema de tratamento dos resíduos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,13 +106,10 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, estudos de projetos sobre as diferentes tecnologias de tratamento; visitas técnicas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Aulas expositivas, estudos de projetos sobre as diferentes tecnologias de tratamento; visitas técnicas.</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação composta por 3 (três) provas, sendo uma substitutiva, e por exercícios sobre as unidades de uma estação de tratamento de água.
@@ -116,10 +119,18 @@
 * valor mínimo da média das notas dos trabalhos e projetos (MT) = 5,0</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>Prova única com nota igual ou superior a 5,0.</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com nota igual ou superior a 5,0.</t>
+    <t>DI BERNARDO, L. Métodos e Técnicas de Tratamento de Água. ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL &amp; LUIZ DI BERNARDO 2 V., Rio de Janeiro, 1993 (2005)
+DI BERNARDO, L. Algas e suas Influências na Qualidade da Água e nas Tecnologias de Tratamento ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL &amp; LUIZ DI BERNARDO, Rio de Janeiro, 1995.
+PROGRAMA DE PESQUISA EM SANEAMENTO BÁSICO Tratamento de Água de Abastecimento por Filtração em Múltiplas Etapas ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 1999 (PROGRAMA DE PESQUISA EM SANEAMENTO BÁSICO. Noções Gerais de Tratamento e Disposição Final de Lodos de Estações de Tratamento de Água ASOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 2000.</t>
   </si>
 </sst>
 </file>
@@ -475,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -600,85 +611,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
